--- a/Course Manager.xlsx
+++ b/Course Manager.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BB0F52-2A81-4AA2-8CB2-BB4E10A76226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862DF085-E120-48F0-997A-737D8C519A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credits And Progress" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>COURSE TITLE</t>
   </si>
@@ -189,27 +188,9 @@
     <t>Performing Arts/Community Service</t>
   </si>
   <si>
-    <t>IA1</t>
-  </si>
-  <si>
-    <t>MID-TERM</t>
-  </si>
-  <si>
-    <t>IA2</t>
-  </si>
-  <si>
     <t>TOTAL INTERNALS</t>
   </si>
   <si>
-    <t>OTHER COMPONENTS</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA </t>
-  </si>
-  <si>
     <t>SEE</t>
   </si>
   <si>
@@ -220,6 +201,9 @@
   </si>
   <si>
     <t>SGPA -</t>
+  </si>
+  <si>
+    <t>CS-1201</t>
   </si>
 </sst>
 </file>
@@ -231,7 +215,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
@@ -501,7 +485,7 @@
       <alignment horizontal="right" wrapText="1" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -514,79 +498,67 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="16" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="0" xfId="21" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="7" borderId="0" xfId="21" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="3" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="7" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -615,7 +587,29 @@
     <cellStyle name="Underline" xfId="15" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="Year" xfId="6" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color theme="3" tint="9.9948118533890809E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="9.9948118533890809E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Space Grotesk Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -632,18 +626,7 @@
         <name val="Space Grotesk Medium"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="9.9948118533890809E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="9.9948118533890809E-2"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -655,20 +638,6 @@
         <name val="Space Grotesk Medium"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Space Grotesk Medium"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -687,31 +656,8 @@
         <name val="Space Grotesk Medium"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Space Grotesk Medium"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -723,42 +669,7 @@
         <name val="Space Grotesk Medium"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Space Grotesk Medium"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Space Grotesk Medium"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Space Grotesk Medium"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1044,18 +955,18 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="College course manager table style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="College course manager table style" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="totalRow" dxfId="30"/>
-      <tableStyleElement type="firstColumn" dxfId="29"/>
-      <tableStyleElement type="lastColumn" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="totalRow" dxfId="26"/>
+      <tableStyleElement type="firstColumn" dxfId="25"/>
+      <tableStyleElement type="lastColumn" dxfId="24"/>
     </tableStyle>
     <tableStyle name="College course manager table style 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="27"/>
-      <tableStyleElement type="headerRow" dxfId="26"/>
-      <tableStyleElement type="totalRow" dxfId="25"/>
-      <tableStyleElement type="firstColumn" dxfId="24"/>
-      <tableStyleElement type="lastColumn" dxfId="23"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
+      <tableStyleElement type="lastColumn" dxfId="19"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1070,16 +981,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Courses" displayName="Courses" ref="B7:H21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Courses" displayName="Courses" ref="B7:H21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="B7:H21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="COURSE TITLE" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="COURSE CODE" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="YEAR" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="CREDITS" dataDxfId="17" dataCellStyle="Table center align"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="COMPLETED" dataDxfId="16" dataCellStyle="Table center align"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="GRADE" dataDxfId="15" dataCellStyle="Grade"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="SEMESTER" dataDxfId="14" dataCellStyle="Table left align"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="COURSE TITLE" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="COURSE CODE" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="YEAR" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="CREDITS" dataDxfId="13" dataCellStyle="Table center align"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="COMPLETED" dataDxfId="12" dataCellStyle="Table center align"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="GRADE" dataDxfId="11" dataCellStyle="Grade"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="SEMESTER" dataDxfId="10" dataCellStyle="Table left align"/>
   </tableColumns>
   <tableStyleInfo name="College course manager table style" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1091,19 +1002,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7771B89B-81E6-4469-831B-C0F37BB844DA}" name="Courses4" displayName="Courses4" ref="B4:K12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B4:K12" xr:uid="{7771B89B-81E6-4469-831B-C0F37BB844DA}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{56470E76-36E8-4435-9B59-EA8D1A723667}" name="COURSE TITLE" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{0D053C40-3EA3-4843-A3B9-BE871BCCFF25}" name="COURSE CODE" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{F52384BA-8983-46F5-99D1-E327FFFCEB6B}" name="CREDITS" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{3BE85119-3E89-476A-904D-802605C02024}" name="IA1" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{7E5567EC-76E5-436A-9C2E-482C5D8E9CC5}" name="MID-TERM" dataDxfId="10" dataCellStyle="Table center align"/>
-    <tableColumn id="8" xr3:uid="{B165FD7F-744E-4CA5-AF54-A1011830165F}" name="IA2" dataDxfId="6" dataCellStyle="Table center align"/>
-    <tableColumn id="5" xr3:uid="{030F7C4B-3079-4CC1-BE6C-6E84BA03EE89}" name="OTHER COMPONENTS" dataDxfId="9" dataCellStyle="Table center align"/>
-    <tableColumn id="6" xr3:uid="{D33482AC-9C4E-4E11-B600-2FE0E78588F2}" name="TOTAL INTERNALS" dataDxfId="8" dataCellStyle="Grade"/>
-    <tableColumn id="9" xr3:uid="{ECADD61C-82DE-410F-9880-E912418EA3B3}" name="SEE" dataDxfId="5" dataCellStyle="Grade"/>
-    <tableColumn id="7" xr3:uid="{37829606-D0E8-4745-B822-836646AB4CCB}" name="GRADE POINT" dataDxfId="7" dataCellStyle="Table left align"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7771B89B-81E6-4469-831B-C0F37BB844DA}" name="Courses4" displayName="Courses4" ref="B4:G12" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B4:G12" xr:uid="{7771B89B-81E6-4469-831B-C0F37BB844DA}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{56470E76-36E8-4435-9B59-EA8D1A723667}" name="COURSE TITLE" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{0D053C40-3EA3-4843-A3B9-BE871BCCFF25}" name="COURSE CODE" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{F52384BA-8983-46F5-99D1-E327FFFCEB6B}" name="CREDITS" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{D33482AC-9C4E-4E11-B600-2FE0E78588F2}" name="TOTAL INTERNALS" dataDxfId="4" dataCellStyle="Grade"/>
+    <tableColumn id="9" xr3:uid="{ECADD61C-82DE-410F-9880-E912418EA3B3}" name="SEE" dataDxfId="3" dataCellStyle="Grade"/>
+    <tableColumn id="7" xr3:uid="{37829606-D0E8-4745-B822-836646AB4CCB}" name="GRADE POINT" dataDxfId="2" dataCellStyle="Table left align"/>
   </tableColumns>
   <tableStyleInfo name="College course manager table style" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1323,393 +1230,393 @@
   </sheetPr>
   <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.19921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.59765625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.3984375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="16.69921875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="2.59765625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="2.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.1875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.3125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="16.6875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="2:8" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:8" ht="25.8" customHeight="1">
+      <c r="B3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="2:8" ht="25.5" customHeight="1">
+      <c r="B4" s="5">
         <f>AVERAGE(Courses[GRADE])</f>
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="6" t="str">
         <f>IFERROR(TEXT(AVERAGEIF(Courses[COMPLETED],"Yes",Courses[GRADE]),"0.00"),"0.00")&amp;" CGPA"</f>
         <v>10.00 CGPA</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>COUNTIF(Courses[COMPLETED],"Yes")/COUNTA(Courses[COURSE TITLE])</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="E4" s="7" t="str">
         <f>TEXT(COUNTIF(Courses[COMPLETED],"Yes")/COUNTA(Courses[COURSE TITLE]),"0%")&amp;" Completed"</f>
         <v>7% Completed</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="F4" s="22" t="str">
         <f>SUMIFS(Courses[CREDITS], Courses[COMPLETED], "Yes")&amp;" Credits Collected Out of 180"</f>
         <v>3 Credits Collected Out of 180</v>
       </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="2:8" ht="25.5" customHeight="1">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" ht="33" customHeight="1">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="2:8" ht="33" customHeight="1">
+      <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:8" ht="33" customHeight="1">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>3</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>10</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:8" ht="33" customHeight="1">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>4</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:8" ht="33" customHeight="1">
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>4</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:8" ht="33" customHeight="1">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>3</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="2:8" ht="33" customHeight="1">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>4</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="2:8" ht="33" customHeight="1">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>4</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="2:8" ht="33" customHeight="1">
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>4</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:8" ht="33" customHeight="1">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>4</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:8" ht="33" customHeight="1">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>4</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:8" ht="33" customHeight="1">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>4</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="2:8" ht="33" customHeight="1">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>4</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="2:8" ht="33" customHeight="1">
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>4</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:8" ht="33" customHeight="1">
+      <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <v>2</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:8" ht="33" customHeight="1">
+      <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>2</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1723,8 +1630,22 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{961D761B-42A4-41BF-AE55-C37E4CE09C84}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
@@ -1751,20 +1672,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{61518553-1B02-4E4B-9C50-F1DC6970278A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="dataBar" priority="1">
-      <dataBar showValue="0">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="10"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{961D761B-42A4-41BF-AE55-C37E4CE09C84}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1808,6 +1715,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{961D761B-42A4-41BF-AE55-C37E4CE09C84}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>10</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{260E324B-B05A-45D1-A324-2B8131FE45C3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -1835,21 +1757,6 @@
           </x14:cfRule>
           <xm:sqref>D4:D5</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{961D761B-42A4-41BF-AE55-C37E4CE09C84}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>10</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B4</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -1858,425 +1765,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8C0930-FEA5-4425-AB98-890845F21207}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="46.3984375" style="17" customWidth="1"/>
-    <col min="3" max="4" width="17.69921875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" style="26" customWidth="1"/>
-    <col min="6" max="7" width="13.19921875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="22" style="17" customWidth="1"/>
-    <col min="11" max="11" width="20" style="17" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="17"/>
+    <col min="1" max="1" width="2.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="46.375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="17.6875" style="18" customWidth="1"/>
+    <col min="5" max="6" width="22" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.8125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="45" customHeight="1">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="24">
+        <f>SUM(Courses4[[#This Row],[TOTAL INTERNALS]],Courses4[[#This Row],[SEE]])/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34.25" customHeight="1">
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="24">
+        <f>SUM(Courses4[[#This Row],[TOTAL INTERNALS]],Courses4[[#This Row],[SEE]])/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.25" customHeight="1">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="24">
+        <f>SUM(Courses4[[#This Row],[TOTAL INTERNALS]],Courses4[[#This Row],[SEE]])/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30.6" customHeight="1">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="24">
+        <f>SUM(Courses4[[#This Row],[TOTAL INTERNALS]],Courses4[[#This Row],[SEE]])/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="24">
+        <f>SUM(Courses4[[#This Row],[TOTAL INTERNALS]],Courses4[[#This Row],[SEE]])/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" customHeight="1">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="24">
+        <f>SUM(Courses4[[#This Row],[TOTAL INTERNALS]],Courses4[[#This Row],[SEE]])/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.8" customHeight="1">
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="24">
+        <f>SUM(Courses4[[#This Row],[TOTAL INTERNALS]],Courses4[[#This Row],[SEE]])/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="33" customHeight="1">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="14">
-        <v>3</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="14">
-        <v>70</v>
-      </c>
-      <c r="I5" s="15">
-        <v>70</v>
-      </c>
-      <c r="J5" s="15">
-        <v>30</v>
-      </c>
-      <c r="K5" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="14">
-        <v>4</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="14">
-        <v>4</v>
-      </c>
-      <c r="E7" s="25">
-        <v>12</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="14">
-        <v>4</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="14">
-        <v>4</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="14">
-        <v>4</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="28">
-        <f>ROUND(((K5*D5)+(K6*D6)+(K7*D7)+(K8*D8)+(K9*D9)+(K10*D10)+(K11*D11))/SUM(D5:D11), 2)</f>
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="14"/>
+      <c r="G12" s="20">
+        <f>ROUND(((G5*D5)+(G6*D6)+(G7*D7)+(G8*D8)+(G9*D9)+(G10*D10)+(G11*D11))/SUM(D5:D11), 2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="14"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="14"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="14"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="B1">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
+  <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The credits worksheet has 2 data bars shows overall progress, a section for Requirements that automatically calculates the total earned and needed credits. It also has a table of courses for storing term course information" sqref="A1" xr:uid="{D07CD54E-27A9-413A-9422-2BEEB15A2179}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter college name in this cell" sqref="B1" xr:uid="{4F3B45CA-F5E5-494B-810E-07123E800185}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the term for which the course is applicable in this column" sqref="K4" xr:uid="{71492277-8B2B-49C2-9253-2F08DF0F098C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="For completed courses, enter the grade received for the course in this column" sqref="I4:J4" xr:uid="{644A6441-F421-4320-B9FC-7BC0CCE7072A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of credits for each course in this column" sqref="F4:G4 D4" xr:uid="{6C5AEBF7-BF11-443A-9379-4FF37B520B56}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the requirement in this column" sqref="E4" xr:uid="{7C692F11-A91F-4667-BFF8-F0278D57CF94}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the term for which the course is applicable in this column" sqref="G4" xr:uid="{71492277-8B2B-49C2-9253-2F08DF0F098C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="For completed courses, enter the grade received for the course in this column" sqref="E4:F4" xr:uid="{644A6441-F421-4320-B9FC-7BC0CCE7072A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the number of credits for each course in this column" sqref="D4" xr:uid="{6C5AEBF7-BF11-443A-9379-4FF37B520B56}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the course # in this column" sqref="C4" xr:uid="{CCBCC5E3-533E-47ED-BF89-E8ACEE983E8E}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter course title in this column" sqref="B4" xr:uid="{5D1F70B6-78AB-4C96-B1D5-8E450818D957}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Yes or No from the dropdown list to indicate whether the course has been completed or not. Select ALT+DOWN ARROW, navigate to either Yes or No, then select ENTER" sqref="H4" xr:uid="{CE3AA0F9-2DA9-4357-83B6-0B0150D33818}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="Select either Yes or No from the provided list. RETRY then ALT+DOWN ARROW, then ENTER to select a value. CANCEL to exit the cell" sqref="H13:H19" xr:uid="{41D510C9-0F89-495B-BA76-9B4ED00638C7}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" error="Select either Yes or No from the provided list. RETRY then ALT+DOWN ARROW, then ENTER to select a value. CANCEL to exit the cell" sqref="H5" xr:uid="{23B41D9D-2AD4-464A-B992-35D29BC404FB}"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="Grade is calculated as a GPA (non-weighted) and should be between 0 and 4." sqref="I5:J5" xr:uid="{8ED01CB3-4B8D-4CC9-B867-F02986C588EF}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Whoops!" error="Grade is calculated as a GPA (non-weighted) and should be between 0 and 4." sqref="E5:F5" xr:uid="{8ED01CB3-4B8D-4CC9-B867-F02986C588EF}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2286,15 +2061,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -2314,7 +2080,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2602,15 +2368,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B027F5DB-365E-467F-884C-D65AC307B2EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6CBAD10-2FE4-46B7-8B99-592C882565A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2622,7 +2389,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE862CC-DB14-40B0-9DD5-108332066F9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2641,4 +2408,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B027F5DB-365E-467F-884C-D65AC307B2EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>